--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H2">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I2">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J2">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="N2">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="O2">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="P2">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="Q2">
-        <v>59.82543625237822</v>
+        <v>345.4871854495524</v>
       </c>
       <c r="R2">
-        <v>538.428926271404</v>
+        <v>3109.384669045972</v>
       </c>
       <c r="S2">
-        <v>0.1744353718241879</v>
+        <v>0.3975714058141012</v>
       </c>
       <c r="T2">
-        <v>0.1744353718241879</v>
+        <v>0.3975714058141013</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H3">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I3">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J3">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.000902</v>
       </c>
       <c r="O3">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="P3">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="Q3">
-        <v>146.6165465926143</v>
+        <v>299.2825150111391</v>
       </c>
       <c r="R3">
-        <v>1319.548919333528</v>
+        <v>2693.542635100252</v>
       </c>
       <c r="S3">
-        <v>0.4274956176260956</v>
+        <v>0.3444011101995927</v>
       </c>
       <c r="T3">
-        <v>0.4274956176260956</v>
+        <v>0.3444011101995929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H4">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I4">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J4">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.765884</v>
       </c>
       <c r="O4">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="P4">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="Q4">
-        <v>47.23561620001956</v>
+        <v>96.42018137095376</v>
       </c>
       <c r="R4">
-        <v>425.120545800176</v>
+        <v>867.7816323385839</v>
       </c>
       <c r="S4">
-        <v>0.1377267395165463</v>
+        <v>0.1109560894613794</v>
       </c>
       <c r="T4">
-        <v>0.1377267395165463</v>
+        <v>0.1109560894613794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>6.981284</v>
       </c>
       <c r="I5">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J5">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="N5">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="O5">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="P5">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="Q5">
-        <v>6.647121738547112</v>
+        <v>18.80534663651645</v>
       </c>
       <c r="R5">
-        <v>59.824095646924</v>
+        <v>169.248119728648</v>
       </c>
       <c r="S5">
-        <v>0.01938127366314048</v>
+        <v>0.02164036298299414</v>
       </c>
       <c r="T5">
-        <v>0.01938127366314047</v>
+        <v>0.02164036298299414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.981284</v>
       </c>
       <c r="I6">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J6">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.000902</v>
       </c>
       <c r="O6">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="P6">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="Q6">
         <v>16.29036234646312</v>
@@ -818,10 +818,10 @@
         <v>146.613261118168</v>
       </c>
       <c r="S6">
-        <v>0.04749844867103802</v>
+        <v>0.01874623005445782</v>
       </c>
       <c r="T6">
-        <v>0.04749844867103801</v>
+        <v>0.01874623005445783</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.981284</v>
       </c>
       <c r="I7">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J7">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.765884</v>
       </c>
       <c r="O7">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="P7">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="Q7">
         <v>5.248284190561778</v>
@@ -880,10 +880,10 @@
         <v>47.234557715056</v>
       </c>
       <c r="S7">
-        <v>0.01530262813893409</v>
+        <v>0.006039493826778264</v>
       </c>
       <c r="T7">
-        <v>0.01530262813893409</v>
+        <v>0.006039493826778264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H8">
         <v>15.134454</v>
       </c>
       <c r="I8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="N8">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="O8">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="P8">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="Q8">
-        <v>14.410036632866</v>
+        <v>40.76737941393199</v>
       </c>
       <c r="R8">
-        <v>129.690329695794</v>
+        <v>366.9064147253879</v>
       </c>
       <c r="S8">
-        <v>0.04201590921042763</v>
+        <v>0.0469133010645932</v>
       </c>
       <c r="T8">
-        <v>0.04201590921042763</v>
+        <v>0.0469133010645932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H9">
         <v>15.134454</v>
       </c>
       <c r="I9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>21.000902</v>
       </c>
       <c r="O9">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="P9">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="Q9">
-        <v>35.31524280861201</v>
+        <v>35.315242808612</v>
       </c>
       <c r="R9">
-        <v>317.8371852775081</v>
+        <v>317.837185277508</v>
       </c>
       <c r="S9">
-        <v>0.1029700391050108</v>
+        <v>0.04063922287542081</v>
       </c>
       <c r="T9">
-        <v>0.1029700391050108</v>
+        <v>0.04063922287542082</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H10">
         <v>15.134454</v>
       </c>
       <c r="I10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>6.765884</v>
       </c>
       <c r="O10">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="P10">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="Q10">
         <v>11.377551129704</v>
@@ -1066,10 +1066,10 @@
         <v>102.397960167336</v>
       </c>
       <c r="S10">
-        <v>0.03317397224461913</v>
+        <v>0.01309278372068227</v>
       </c>
       <c r="T10">
-        <v>0.03317397224461913</v>
+        <v>0.01309278372068227</v>
       </c>
     </row>
   </sheetData>
